--- a/MutuadePescadores.xlsx
+++ b/MutuadePescadores.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="782"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
     <sheet name="ROC-SROC" sheetId="2" r:id="rId2"/>
-    <sheet name="YEARINCOMESTATEMENT" sheetId="3" r:id="rId3"/>
-    <sheet name="YEARAPPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="FINANCIALSTATEMENTS" sheetId="3" r:id="rId3"/>
+    <sheet name="APPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="BOARD" sheetId="5" r:id="rId5"/>
     <sheet name="PARTICIPATION" sheetId="6" r:id="rId6"/>
     <sheet name="MEMBER" sheetId="7" r:id="rId7"/>
-    <sheet name="DEDUCTIONFOROTHER" sheetId="8" r:id="rId8"/>
+    <sheet name="ALLOCATIONRESERVES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -31,26 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="231">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>OrganisationName</t>
-  </si>
-  <si>
     <t>Mútua de Pescadores</t>
   </si>
   <si>
-    <t>OrganisationURL</t>
-  </si>
-  <si>
     <t>https://www.mutuapescadores.pt/</t>
   </si>
   <si>
-    <t>typeOfOrganisation</t>
-  </si>
-  <si>
     <t>Cooperativa</t>
   </si>
   <si>
@@ -78,48 +69,18 @@
     <t>resultsSurpluses</t>
   </si>
   <si>
-    <t>profitsThirdPartyResults</t>
-  </si>
-  <si>
-    <t>profitsExtraordinaryResults</t>
-  </si>
-  <si>
     <t>yearNetProfit</t>
   </si>
   <si>
-    <t>deductionForLegalReserve</t>
-  </si>
-  <si>
-    <t>deductionForEducationAndTrainingReserve</t>
-  </si>
-  <si>
     <t>retainedEarnings</t>
   </si>
   <si>
     <t>interestPayment</t>
   </si>
   <si>
-    <t>allocationToVoluntaryReserves</t>
-  </si>
-  <si>
-    <t>totalOrganisationRefunds</t>
-  </si>
-  <si>
-    <t>lossTreatmentLiabilities</t>
-  </si>
-  <si>
-    <t>lossTreatmentLossesGeneratedByMembers</t>
-  </si>
-  <si>
     <t>allocatioOfProfitsIndivisiblesReserves</t>
   </si>
   <si>
-    <t>deliversRefunds</t>
-  </si>
-  <si>
-    <t>appliesOtherDeduction</t>
-  </si>
-  <si>
     <t>BOARD ID</t>
   </si>
   <si>
@@ -730,6 +691,39 @@
   </si>
   <si>
     <t>164052(-)</t>
+  </si>
+  <si>
+    <t>profitsNonMemberyResults</t>
+  </si>
+  <si>
+    <t>profitsExtraEntityResults</t>
+  </si>
+  <si>
+    <t>allocationForLegalReserve</t>
+  </si>
+  <si>
+    <t>allocationForEducationAndTrainingReserve</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesDebts</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesLosses</t>
+  </si>
+  <si>
+    <t>distributionOfReturns</t>
+  </si>
+  <si>
+    <t>otherDeduction</t>
+  </si>
+  <si>
+    <t>typeOfEntity</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>entityURL</t>
   </si>
 </sst>
 </file>
@@ -764,18 +758,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -888,7 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -908,6 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1257,15 +1245,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -1280,35 +1268,38 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1340,15 +1331,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="18">
         <v>1266</v>
@@ -1368,57 +1359,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="20"/>
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="20">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19">
         <v>360995.59</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="20">
+        <v>220</v>
+      </c>
+      <c r="B4" s="19">
         <v>596670.93000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="20"/>
+        <v>221</v>
+      </c>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="20">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19">
         <v>1098559</v>
       </c>
     </row>
@@ -1434,22 +1425,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16">
         <v>110415.43</v>
@@ -1457,7 +1448,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="B2" s="16">
         <v>5018.88</v>
@@ -1465,61 +1456,83 @@
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" s="16">
         <v>360995.59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>21</v>
+      <c r="A4" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="B5" s="16">
         <v>34149</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>23</v>
+      <c r="A6" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>24</v>
+      <c r="A7" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>25</v>
+      <c r="A8" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="16"/>
+        <v>227</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1554,22 +1567,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1582,39 +1595,39 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B4" s="18">
         <v>3</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4" s="18">
         <v>10</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H4" s="18">
         <v>5</v>
@@ -1622,186 +1635,186 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="D9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>51</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>56</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="D14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1814,39 +1827,39 @@
     </row>
     <row r="18" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B19" s="18">
         <v>2</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E19" s="18">
         <v>3</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H19" s="18">
         <v>12</v>
@@ -1854,58 +1867,58 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="D22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,10 +1927,10 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="G23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1926,10 +1939,10 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="G24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1938,10 +1951,10 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="G25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1950,10 +1963,10 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="G26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1962,10 +1975,10 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="G27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>77</v>
+        <v>25</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,10 +1987,10 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="G28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>79</v>
+        <v>25</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,10 +1999,10 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="G29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>80</v>
+        <v>25</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1998,10 +2011,10 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="G30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -2010,18 +2023,18 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="G31" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>84</v>
+        <v>25</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
@@ -2040,81 +2053,81 @@
     </row>
     <row r="35" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="23">
+        <v>24</v>
+      </c>
+      <c r="B36" s="22">
         <v>4</v>
       </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="26"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>81</v>
+        <v>25</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="26"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="26"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="26"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="26"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>86</v>
+        <v>25</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="26"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D41" s="8"/>
@@ -2747,33 +2760,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>45</v>
+        <v>74</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="G2" s="1"/>
@@ -2783,163 +2796,163 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="20">
+        <v>75</v>
+      </c>
+      <c r="B3" s="19">
         <v>2017</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="20">
+        <v>75</v>
+      </c>
+      <c r="E3" s="19">
         <v>2017</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="20">
+        <v>75</v>
+      </c>
+      <c r="H3" s="19">
         <v>2017</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="20">
+        <v>75</v>
+      </c>
+      <c r="K3" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="20">
+        <v>76</v>
+      </c>
+      <c r="B4" s="19">
         <v>2020</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="20">
+        <v>76</v>
+      </c>
+      <c r="E4" s="19">
         <v>2020</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="20">
+        <v>76</v>
+      </c>
+      <c r="H4" s="19">
         <v>2020</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="20">
+        <v>76</v>
+      </c>
+      <c r="K4" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="G11" s="5"/>
@@ -2949,132 +2962,132 @@
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="20">
+        <v>75</v>
+      </c>
+      <c r="B12" s="19">
         <v>2017</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="20">
+        <v>75</v>
+      </c>
+      <c r="E12" s="19">
         <v>2017</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="20">
+        <v>75</v>
+      </c>
+      <c r="H12" s="19">
         <v>2017</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="20">
+        <v>75</v>
+      </c>
+      <c r="K12" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="20">
+        <v>76</v>
+      </c>
+      <c r="B13" s="19">
         <v>2020</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="20">
+        <v>76</v>
+      </c>
+      <c r="E13" s="19">
         <v>2020</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="20">
+        <v>76</v>
+      </c>
+      <c r="H13" s="19">
         <v>2020</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="20">
+        <v>76</v>
+      </c>
+      <c r="K13" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3105,33 +3118,33 @@
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>54</v>
+        <v>74</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="G20" s="5"/>
@@ -3141,132 +3154,132 @@
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="20">
+        <v>75</v>
+      </c>
+      <c r="B21" s="19">
         <v>2017</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="20">
+        <v>75</v>
+      </c>
+      <c r="E21" s="19">
         <v>2017</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="20">
+        <v>75</v>
+      </c>
+      <c r="H21" s="19">
         <v>2017</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="20">
+        <v>75</v>
+      </c>
+      <c r="K21" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="20">
+        <v>76</v>
+      </c>
+      <c r="B22" s="19">
         <v>2020</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="20">
+        <v>76</v>
+      </c>
+      <c r="E22" s="19">
         <v>2020</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="20">
+        <v>76</v>
+      </c>
+      <c r="H22" s="19">
         <v>2020</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="20">
+        <v>76</v>
+      </c>
+      <c r="K22" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>106</v>
+        <v>77</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>109</v>
+        <v>77</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>110</v>
+        <v>82</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>111</v>
+        <v>82</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3297,33 +3310,33 @@
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
       <c r="G29" s="5"/>
@@ -3333,132 +3346,132 @@
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="20">
+        <v>75</v>
+      </c>
+      <c r="B30" s="19">
         <v>2017</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="20">
+        <v>75</v>
+      </c>
+      <c r="E30" s="19">
         <v>2017</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="20">
+        <v>75</v>
+      </c>
+      <c r="H30" s="19">
         <v>2017</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="20">
+        <v>75</v>
+      </c>
+      <c r="K30" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="20">
+        <v>76</v>
+      </c>
+      <c r="B31" s="19">
         <v>2020</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="20">
+        <v>76</v>
+      </c>
+      <c r="E31" s="19">
         <v>2020</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="20">
+        <v>76</v>
+      </c>
+      <c r="H31" s="19">
         <v>2020</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="20">
+        <v>76</v>
+      </c>
+      <c r="K31" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>115</v>
+        <v>77</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>116</v>
+        <v>77</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>119</v>
+        <v>82</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="29" t="s">
-        <v>120</v>
+        <v>82</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3483,33 +3496,33 @@
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
       <c r="G38" s="5"/>
@@ -3519,163 +3532,163 @@
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="20">
+        <v>75</v>
+      </c>
+      <c r="B39" s="19">
         <v>2017</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="20">
+        <v>75</v>
+      </c>
+      <c r="E39" s="19">
         <v>2017</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="20">
+        <v>75</v>
+      </c>
+      <c r="H39" s="19">
         <v>2017</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K39" s="20">
+        <v>75</v>
+      </c>
+      <c r="K39" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="20">
+        <v>76</v>
+      </c>
+      <c r="B40" s="19">
         <v>2020</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="20">
+        <v>76</v>
+      </c>
+      <c r="E40" s="19">
         <v>2020</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="20">
+        <v>76</v>
+      </c>
+      <c r="H40" s="19">
         <v>2020</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40" s="20">
+        <v>76</v>
+      </c>
+      <c r="K40" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>121</v>
+        <v>77</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>122</v>
+        <v>77</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>123</v>
+        <v>77</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>126</v>
+        <v>82</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>127</v>
+        <v>82</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>128</v>
+        <v>82</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K43" s="29" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
       <c r="D47" s="5"/>
       <c r="E47" s="2"/>
       <c r="G47" s="5"/>
@@ -3685,132 +3698,132 @@
     </row>
     <row r="48" spans="1:11" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="20">
+        <v>75</v>
+      </c>
+      <c r="B48" s="19">
         <v>2017</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="20">
+        <v>75</v>
+      </c>
+      <c r="E48" s="19">
         <v>2017</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H48" s="20">
+        <v>75</v>
+      </c>
+      <c r="H48" s="19">
         <v>2017</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K48" s="20">
+        <v>75</v>
+      </c>
+      <c r="K48" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="20">
+        <v>76</v>
+      </c>
+      <c r="B49" s="19">
         <v>2020</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="20">
+        <v>76</v>
+      </c>
+      <c r="E49" s="19">
         <v>2020</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="20">
+        <v>76</v>
+      </c>
+      <c r="H49" s="19">
         <v>2020</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K49" s="20">
+        <v>76</v>
+      </c>
+      <c r="K49" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>129</v>
+        <v>77</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>130</v>
+        <v>77</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>131</v>
+        <v>77</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>132</v>
+        <v>77</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>133</v>
+        <v>82</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>134</v>
+        <v>82</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>135</v>
+        <v>82</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>136</v>
+        <v>82</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3843,33 +3856,33 @@
     </row>
     <row r="55" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K55" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
       <c r="D56" s="5"/>
       <c r="E56" s="2"/>
       <c r="G56" s="5"/>
@@ -3879,132 +3892,132 @@
     </row>
     <row r="57" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="20">
+        <v>75</v>
+      </c>
+      <c r="B57" s="19">
         <v>2017</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="20">
+        <v>75</v>
+      </c>
+      <c r="E57" s="19">
         <v>2017</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="20">
+        <v>75</v>
+      </c>
+      <c r="H57" s="19">
         <v>2017</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K57" s="20">
+        <v>75</v>
+      </c>
+      <c r="K57" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="20">
+        <v>76</v>
+      </c>
+      <c r="B58" s="19">
         <v>2020</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="20">
+        <v>76</v>
+      </c>
+      <c r="E58" s="19">
         <v>2020</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H58" s="20">
+        <v>76</v>
+      </c>
+      <c r="H58" s="19">
         <v>2020</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K58" s="20">
+        <v>76</v>
+      </c>
+      <c r="K58" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>137</v>
+        <v>77</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>138</v>
+        <v>77</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>139</v>
+        <v>77</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>140</v>
+        <v>77</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>142</v>
+        <v>82</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>143</v>
+        <v>82</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K60" s="29" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K61" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -4037,33 +4050,33 @@
     </row>
     <row r="64" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="20" t="s">
         <v>74</v>
       </c>
+      <c r="E64" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="G64" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K64" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
       <c r="D65" s="5"/>
       <c r="E65" s="2"/>
       <c r="G65" s="5"/>
@@ -4073,132 +4086,132 @@
     </row>
     <row r="66" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="20">
+        <v>75</v>
+      </c>
+      <c r="B66" s="19">
         <v>2017</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="20">
+        <v>75</v>
+      </c>
+      <c r="E66" s="19">
         <v>2017</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" s="20">
+        <v>75</v>
+      </c>
+      <c r="H66" s="19">
         <v>2017</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K66" s="20">
+        <v>75</v>
+      </c>
+      <c r="K66" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="20">
+        <v>76</v>
+      </c>
+      <c r="B67" s="19">
         <v>2020</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="20">
+        <v>76</v>
+      </c>
+      <c r="E67" s="19">
         <v>2020</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67" s="20">
+        <v>76</v>
+      </c>
+      <c r="H67" s="19">
         <v>2020</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K67" s="20">
+        <v>76</v>
+      </c>
+      <c r="K67" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>145</v>
+        <v>77</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>146</v>
+        <v>77</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>147</v>
+        <v>77</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K68" s="20" t="s">
-        <v>148</v>
+        <v>77</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>149</v>
+        <v>82</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>151</v>
+        <v>82</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>152</v>
+        <v>82</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K70" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -4231,33 +4244,33 @@
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="27"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
       <c r="D74" s="5"/>
       <c r="E74" s="2"/>
       <c r="G74" s="5"/>
@@ -4267,132 +4280,132 @@
     </row>
     <row r="75" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="20">
+        <v>75</v>
+      </c>
+      <c r="B75" s="19">
         <v>2017</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="20">
+        <v>75</v>
+      </c>
+      <c r="E75" s="19">
         <v>2017</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H75" s="20">
+        <v>75</v>
+      </c>
+      <c r="H75" s="19">
         <v>2017</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K75" s="20">
+        <v>75</v>
+      </c>
+      <c r="K75" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="20">
+        <v>76</v>
+      </c>
+      <c r="B76" s="19">
         <v>2020</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="20">
+        <v>76</v>
+      </c>
+      <c r="E76" s="19">
         <v>2020</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" s="20">
+        <v>76</v>
+      </c>
+      <c r="H76" s="19">
         <v>2020</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K76" s="20">
+        <v>76</v>
+      </c>
+      <c r="K76" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>153</v>
+        <v>77</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>154</v>
+        <v>77</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="20" t="s">
-        <v>155</v>
+        <v>77</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K77" s="20" t="s">
-        <v>156</v>
+        <v>77</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>157</v>
+        <v>82</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>158</v>
+        <v>82</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>159</v>
+        <v>82</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K78" s="29" t="s">
-        <v>160</v>
+        <v>82</v>
+      </c>
+      <c r="K78" s="28" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K79" s="29" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="K79" s="28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4425,33 +4438,33 @@
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K82" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="27"/>
       <c r="D83" s="5"/>
       <c r="E83" s="2"/>
       <c r="G83" s="5"/>
@@ -4461,132 +4474,132 @@
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="20">
+        <v>75</v>
+      </c>
+      <c r="B84" s="19">
         <v>2017</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="20">
+        <v>75</v>
+      </c>
+      <c r="E84" s="19">
         <v>2017</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H84" s="20">
+        <v>75</v>
+      </c>
+      <c r="H84" s="19">
         <v>2017</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K84" s="20">
+        <v>75</v>
+      </c>
+      <c r="K84" s="19">
         <v>2017</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="20">
+        <v>76</v>
+      </c>
+      <c r="B85" s="19">
         <v>2020</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="20">
+        <v>76</v>
+      </c>
+      <c r="E85" s="19">
         <v>2020</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H85" s="20">
+        <v>76</v>
+      </c>
+      <c r="H85" s="19">
         <v>2020</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K85" s="20">
+        <v>76</v>
+      </c>
+      <c r="K85" s="19">
         <v>2020</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>161</v>
+        <v>77</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>162</v>
+        <v>77</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H86" s="20" t="s">
-        <v>163</v>
+        <v>77</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K86" s="20" t="s">
-        <v>164</v>
+        <v>77</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>165</v>
+        <v>82</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>166</v>
+        <v>82</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>167</v>
+        <v>82</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>154</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K87" s="29" t="s">
-        <v>168</v>
+        <v>82</v>
+      </c>
+      <c r="K87" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H88" s="29" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K88" s="29" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="K88" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4622,22 +4635,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4646,110 +4659,110 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>173</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>174</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>175</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E4" s="16"/>
       <c r="G4" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E6" s="16"/>
       <c r="G6" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4760,110 +4773,110 @@
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>185</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>186</v>
+        <v>20</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B14" s="16"/>
       <c r="D14" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E14" s="16"/>
       <c r="G14" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,110 +4887,110 @@
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>187</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>188</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>189</v>
+        <v>20</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B21" s="16"/>
       <c r="D21" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E21" s="16"/>
       <c r="G21" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B23" s="16"/>
       <c r="D23" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E23" s="16"/>
       <c r="G23" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4988,110 +5001,110 @@
     </row>
     <row r="29" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>190</v>
+        <v>20</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>191</v>
+        <v>20</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>192</v>
+        <v>20</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B30" s="16"/>
       <c r="D30" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E30" s="16"/>
       <c r="G30" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B32" s="16"/>
       <c r="D32" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E32" s="16"/>
       <c r="G32" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5102,110 +5115,110 @@
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>193</v>
+        <v>20</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>194</v>
+        <v>20</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>195</v>
+        <v>20</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B38" s="16"/>
       <c r="D38" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E38" s="16"/>
       <c r="G38" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B40" s="16"/>
       <c r="D40" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E40" s="16"/>
       <c r="G40" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5216,110 +5229,110 @@
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>196</v>
+        <v>20</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>197</v>
+        <v>20</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>198</v>
+        <v>20</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B47" s="16"/>
       <c r="D47" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E47" s="16"/>
       <c r="G47" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B49" s="16"/>
       <c r="D49" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E49" s="16"/>
       <c r="G49" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5330,90 +5343,90 @@
     </row>
     <row r="55" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>199</v>
+        <v>20</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>201</v>
+        <v>20</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B56" s="16"/>
       <c r="D56" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E56" s="16"/>
       <c r="G56" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B58" s="16"/>
       <c r="D58" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E58" s="16"/>
       <c r="G58" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -5438,22 +5451,22 @@
     </row>
     <row r="62" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5464,90 +5477,90 @@
     </row>
     <row r="64" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>202</v>
+        <v>20</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>203</v>
+        <v>20</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>204</v>
+        <v>20</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B65" s="16"/>
       <c r="D65" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E65" s="16"/>
       <c r="G65" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B67" s="16"/>
       <c r="D67" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E67" s="16"/>
       <c r="G67" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5574,22 +5587,22 @@
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5600,90 +5613,90 @@
     </row>
     <row r="73" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>205</v>
+        <v>20</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>206</v>
+        <v>20</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>207</v>
+        <v>20</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B74" s="16"/>
       <c r="D74" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E74" s="16"/>
       <c r="G74" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B76" s="16"/>
       <c r="D76" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E76" s="16"/>
       <c r="G76" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -5712,22 +5725,22 @@
     </row>
     <row r="80" spans="1:10" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5738,90 +5751,90 @@
     </row>
     <row r="82" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>209</v>
+        <v>20</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>210</v>
+        <v>20</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>211</v>
+        <v>20</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B83" s="16"/>
       <c r="D83" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E83" s="16"/>
       <c r="G83" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B85" s="16"/>
       <c r="D85" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E85" s="16"/>
       <c r="G85" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -5846,22 +5859,22 @@
     </row>
     <row r="89" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5872,90 +5885,90 @@
     </row>
     <row r="91" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>212</v>
+        <v>20</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>213</v>
+        <v>20</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" s="20" t="s">
-        <v>214</v>
+        <v>20</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B92" s="16"/>
       <c r="D92" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E92" s="16"/>
       <c r="G92" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B94" s="16"/>
       <c r="D94" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E94" s="16"/>
       <c r="G94" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5980,22 +5993,22 @@
     </row>
     <row r="98" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6006,90 +6019,90 @@
     </row>
     <row r="100" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>215</v>
+        <v>20</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>216</v>
+        <v>20</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" s="20" t="s">
-        <v>217</v>
+        <v>20</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B101" s="16"/>
       <c r="D101" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E101" s="16"/>
       <c r="G101" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B103" s="16"/>
       <c r="D103" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E103" s="16"/>
       <c r="G103" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -6114,22 +6127,22 @@
     </row>
     <row r="107" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6140,84 +6153,84 @@
     </row>
     <row r="109" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="B109" s="19"/>
       <c r="D109" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="E109" s="19"/>
       <c r="G109" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="H109" s="19"/>
     </row>
     <row r="110" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B110" s="16"/>
       <c r="D110" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E110" s="16"/>
       <c r="G110" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B112" s="16"/>
       <c r="D112" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E112" s="16"/>
       <c r="G112" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -6242,10 +6255,10 @@
     </row>
     <row r="116" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="8"/>
@@ -6259,22 +6272,22 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="30"/>
+      <c r="H117" s="29"/>
     </row>
     <row r="118" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="B118" s="19"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="30"/>
+      <c r="E118" s="29"/>
       <c r="F118" s="8"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="30"/>
+      <c r="H118" s="29"/>
     </row>
     <row r="119" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B119" s="16"/>
       <c r="D119" s="7"/>
@@ -6285,10 +6298,10 @@
     </row>
     <row r="120" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="8"/>
@@ -6298,7 +6311,7 @@
     </row>
     <row r="121" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B121" s="16"/>
       <c r="D121" s="7"/>
@@ -6309,10 +6322,10 @@
     </row>
     <row r="122" spans="1:8" s="9" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="8"/>
@@ -6335,7 +6348,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:J10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6356,28 +6369,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>219</v>
+        <v>205</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>221</v>
+        <v>205</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>222</v>
+        <v>205</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -6390,61 +6403,61 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>224</v>
+        <v>210</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>225</v>
+        <v>210</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>212</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>226</v>
+        <v>210</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>227</v>
+        <v>210</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="29"/>
+        <v>215</v>
+      </c>
+      <c r="B4" s="28"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="29">
+        <v>215</v>
+      </c>
+      <c r="E4" s="28">
         <v>2061347</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>229</v>
+        <v>215</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" s="29">
+        <v>215</v>
+      </c>
+      <c r="K4" s="28">
         <v>951450</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>230</v>
+        <v>205</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="4"/>
@@ -6459,10 +6472,10 @@
     </row>
     <row r="9" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>231</v>
+        <v>210</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="4"/>
@@ -6473,10 +6486,10 @@
     </row>
     <row r="10" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>232</v>
+        <v>215</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="4"/>
